--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0918B2ED-C0B0-4E6A-943C-839D52A0925C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC5754-ABCB-45EF-ACD5-DC7523BB3327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>Liton Ray</t>
   </si>
   <si>
-    <t>28/9/2024</t>
+    <t>30/9/2024</t>
   </si>
 </sst>
 </file>
@@ -992,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC5754-ABCB-45EF-ACD5-DC7523BB3327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591DAD4-1428-42BF-8E8A-3C7CFE4832E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>p</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Liton Ray</t>
-  </si>
-  <si>
-    <t>30/9/2024</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1066,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27" t="s">
-        <v>36</v>
+      <c r="L3" s="27">
+        <v>45301</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1154,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1170,7 +1167,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1182,7 +1179,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1240,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="5">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1256,7 +1253,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1268,7 +1265,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1283,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1299,7 +1296,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1311,7 +1308,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1338,7 +1335,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1358,7 +1355,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1370,7 +1367,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="M12" s="8"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591DAD4-1428-42BF-8E8A-3C7CFE4832E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C3ACA-405A-4419-AE7A-EE06EE5E81B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Route" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="27">
-        <v>45301</v>
+        <v>45332</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1151,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1237,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1280,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="M12" s="8"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C3ACA-405A-4419-AE7A-EE06EE5E81B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFA32D-C55B-43AA-9D95-2710DB2DC621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="27">
-        <v>45332</v>
+        <v>45575</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1151,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1237,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="5">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1280,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="M12" s="8"/>
     </row>
@@ -1491,7 +1491,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1514,7 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="18">
-        <v>45548</v>
+        <v>45578</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFA32D-C55B-43AA-9D95-2710DB2DC621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF3937D-A1D4-4ECF-80EF-D1A166650CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>p</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Liton Ray</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1069,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27">
-        <v>45575</v>
+      <c r="L3" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="M3" s="28"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF3937D-A1D4-4ECF-80EF-D1A166650CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50BE1D2-5FA5-43F7-A85D-F046B8D2BB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>p</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Liton Ray</t>
-  </si>
-  <si>
-    <t>15/10/2024</t>
   </si>
 </sst>
 </file>
@@ -993,7 +990,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1066,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27" t="s">
-        <v>36</v>
+      <c r="L3" s="27">
+        <v>45362</v>
       </c>
       <c r="M3" s="28"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50BE1D2-5FA5-43F7-A85D-F046B8D2BB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CEDD6-880D-4C7A-A562-B53999630B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,10 +149,10 @@
     <t>Mangrove Communication RSO/SR Mobil /survicing</t>
   </si>
   <si>
-    <t>Ismail Hasan</t>
-  </si>
-  <si>
     <t>Liton Ray</t>
+  </si>
+  <si>
+    <t>Sabbir Hossen</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:M4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="27">
-        <v>45362</v>
+        <v>45607</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1151,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1234,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1280,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="M12" s="8"/>
     </row>
@@ -1428,7 +1428,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="18">
-        <v>45578</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="20">
         <v>700</v>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CEDD6-880D-4C7A-A562-B53999630B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3898F216-38E9-46D1-9CF3-8582D34C7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,8 +989,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="27">
-        <v>45607</v>
+        <v>45637</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1151,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1237,7 +1237,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="5">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1280,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="M12" s="8"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3898F216-38E9-46D1-9CF3-8582D34C7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E10CE-6D06-470B-A1D7-9E3137121C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>p</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Sabbir Hossen</t>
+  </si>
+  <si>
+    <t>16/11/2024</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1069,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27">
-        <v>45637</v>
+      <c r="L3" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1151,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1167,7 +1170,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1237,7 +1240,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1253,7 +1256,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1265,7 +1268,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1280,7 +1283,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1296,7 +1299,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1308,7 +1311,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1335,7 +1338,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1355,7 +1358,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1367,7 +1370,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="M12" s="8"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E10CE-6D06-470B-A1D7-9E3137121C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BE3C7-4C35-4E51-8594-2C3011F20166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>Sabbir Hossen</t>
   </si>
   <si>
-    <t>16/11/2024</t>
+    <t>17/11/2024</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1240,7 +1240,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="5">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1283,7 +1283,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1338,7 +1338,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="M12" s="8"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BE3C7-4C35-4E51-8594-2C3011F20166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F01D5E-FEF7-42D1-811A-3068FCE870BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>Sabbir Hossen</t>
   </si>
   <si>
-    <t>17/11/2024</t>
+    <t>21/11/2024</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F01D5E-FEF7-42D1-811A-3068FCE870BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761DC2E-89A8-4A00-9647-A8AEF736E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>Sabbir Hossen</t>
   </si>
   <si>
-    <t>21/11/2024</t>
+    <t>28/11/2024</t>
   </si>
 </sst>
 </file>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761DC2E-89A8-4A00-9647-A8AEF736E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EA323-89B6-4903-9236-5C18E3A17333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>p</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Asim Gain</t>
   </si>
   <si>
-    <t>Asik Rohman</t>
-  </si>
-  <si>
     <t>Ripon Mondal</t>
   </si>
   <si>
@@ -143,19 +140,19 @@
     <t>Ismail Hassan</t>
   </si>
   <si>
-    <t>Asikur Rahman</t>
-  </si>
-  <si>
     <t>Mangrove Communication RSO/SR Mobil /survicing</t>
   </si>
   <si>
     <t>Liton Ray</t>
   </si>
   <si>
-    <t>Sabbir Hossen</t>
-  </si>
-  <si>
-    <t>28/11/2024</t>
+    <t>Chiranjit Barai</t>
+  </si>
+  <si>
+    <t>Prince Mondal</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
   </si>
 </sst>
 </file>
@@ -679,11 +676,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Ismail</a:t>
+            <a:t>Chiranjit</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Hasan</a:t>
+            <a:t> Barai</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1070,7 +1067,7 @@
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1154,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1170,7 +1167,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1182,7 +1179,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1194,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5">
         <v>20</v>
@@ -1237,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1256,7 +1253,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1268,7 +1265,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1280,10 +1277,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1299,7 +1296,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1311,7 +1308,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1338,7 +1335,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1358,7 +1355,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1370,7 +1367,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="M12" s="8"/>
     </row>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="17" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -1431,7 +1428,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -1452,7 +1449,7 @@
     </row>
     <row r="19" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -1463,7 +1460,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1491,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1506,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -1517,27 +1514,27 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="18">
-        <v>45609</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" s="45" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>8</v>
@@ -1569,7 +1566,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -1581,7 +1578,7 @@
     </row>
     <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1617,16 +1614,12 @@
       <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="20">
-        <v>700</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G8" s="20"/>
     </row>
@@ -1638,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="20">
         <v>700</v>
@@ -1658,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="20">
         <v>700</v>
@@ -1676,7 +1669,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22">
         <f>SUM(D5:D10)</f>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E11" s="22">
         <f>SUM(E5:E10)</f>
@@ -1684,7 +1677,7 @@
       </c>
       <c r="F11" s="22">
         <f>SUM(F5:F10)</f>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="G11" s="22"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EA323-89B6-4903-9236-5C18E3A17333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F1A6C2-5174-4FEA-BFED-294B1E7D8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>Prince Mondal</t>
   </si>
   <si>
-    <t>18/12/2024</t>
+    <t>25/12/2024</t>
   </si>
 </sst>
 </file>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F1A6C2-5174-4FEA-BFED-294B1E7D8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43959C-FA67-439B-884B-900371F6C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>Prince Mondal</t>
   </si>
   <si>
-    <t>25/12/2024</t>
+    <t>30/12/2024</t>
   </si>
 </sst>
 </file>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF43959C-FA67-439B-884B-900371F6C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0412454-01A0-450C-B1FB-DC7877FF3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>p</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Prince Mondal</t>
-  </si>
-  <si>
-    <t>30/12/2024</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1063,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27" t="s">
-        <v>35</v>
+      <c r="L3" s="27">
+        <v>45901</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1151,7 +1148,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1167,7 +1164,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1179,7 +1176,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1237,7 +1234,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="5">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1253,7 +1250,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1265,7 +1262,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1280,7 +1277,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1296,7 +1293,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1308,7 +1305,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1335,7 +1332,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1355,7 +1352,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1367,7 +1364,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="M12" s="8"/>
     </row>
@@ -1491,7 +1488,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1511,7 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="18">
-        <v>45639</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0412454-01A0-450C-B1FB-DC7877FF3470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067CB554-A85B-400F-8AFF-098026FD4EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>p</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Prince Mondal</t>
+  </si>
+  <si>
+    <t>19/1/2025</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1066,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27">
-        <v>45901</v>
+      <c r="L3" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="M3" s="28"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067CB554-A85B-400F-8AFF-098026FD4EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58D853B-1B60-43BA-BDEE-DB0F3BEADE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
     <t>Prince Mondal</t>
   </si>
   <si>
-    <t>19/1/2025</t>
+    <t>28/1/2025</t>
   </si>
 </sst>
 </file>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58D853B-1B60-43BA-BDEE-DB0F3BEADE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B81411-302C-420F-9F37-942149618E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>p</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Prince Mondal</t>
-  </si>
-  <si>
-    <t>28/1/2025</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1063,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27" t="s">
-        <v>35</v>
+      <c r="L3" s="27">
+        <v>45690</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1151,7 +1148,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1167,7 +1164,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1179,7 +1176,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1237,7 +1234,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1253,7 +1250,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1265,7 +1262,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1335,7 +1332,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1355,7 +1352,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1367,7 +1364,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="M12" s="8"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B81411-302C-420F-9F37-942149618E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D933EB-E277-40B0-8815-0ECC65F44018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>p</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Prince Mondal</t>
+  </si>
+  <si>
+    <t>Arman Hossen</t>
+  </si>
+  <si>
+    <t>19/2025</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1069,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27">
-        <v>45690</v>
+      <c r="L3" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1148,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1164,7 +1170,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1176,7 +1182,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1234,7 +1240,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="5">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1250,7 +1256,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1262,7 +1268,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1274,10 +1280,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1293,7 +1299,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1332,7 +1338,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1352,7 +1358,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1364,7 +1370,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="M12" s="8"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D933EB-E277-40B0-8815-0ECC65F44018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA93D4-2804-4C37-81DB-754794A99C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>p</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Arman Hossen</t>
-  </si>
-  <si>
-    <t>19/2025</t>
   </si>
 </sst>
 </file>
@@ -992,8 +989,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,8 +1066,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27" t="s">
-        <v>36</v>
+      <c r="L3" s="27">
+        <v>45660</v>
       </c>
       <c r="M3" s="28"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA93D4-2804-4C37-81DB-754794A99C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC583B7-61E9-40B0-8E91-D31A0CC8CFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>p</t>
   </si>
@@ -137,9 +137,6 @@
     <t xml:space="preserve">RSO/SR </t>
   </si>
   <si>
-    <t>Ismail Hassan</t>
-  </si>
-  <si>
     <t>Mangrove Communication RSO/SR Mobil /survicing</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Arman Hossen</t>
+  </si>
+  <si>
+    <t>29/3/2025</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1066,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27">
-        <v>45660</v>
+      <c r="L3" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1191,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5">
         <v>20</v>
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5">
         <v>200</v>
@@ -1277,7 +1277,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5">
         <v>150</v>
@@ -1428,7 +1428,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -1514,7 +1514,7 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="18">
-        <v>45658</v>
+        <v>45689</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -1598,12 +1598,12 @@
         <v>20</v>
       </c>
       <c r="D7" s="20">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20">
         <f t="shared" ref="F7:F10" si="0">D7+E7</f>
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="G7" s="20"/>
     </row>
@@ -1631,15 +1631,15 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="20">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="G9" s="20"/>
     </row>
@@ -1654,12 +1654,12 @@
         <v>21</v>
       </c>
       <c r="D10" s="20">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="G10" s="20"/>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22">
         <f>SUM(D5:D10)</f>
-        <v>2100</v>
+        <v>1650</v>
       </c>
       <c r="E11" s="22">
         <f>SUM(E5:E10)</f>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F11" s="22">
         <f>SUM(F5:F10)</f>
-        <v>2100</v>
+        <v>1650</v>
       </c>
       <c r="G11" s="22"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC583B7-61E9-40B0-8E91-D31A0CC8CFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9964115-7E85-443C-ADFE-143CA719B044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>p</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Arman Hossen</t>
-  </si>
-  <si>
-    <t>29/3/2025</t>
   </si>
 </sst>
 </file>
@@ -990,7 +987,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:M4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1000,7 @@
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,8 +1063,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27" t="s">
-        <v>35</v>
+      <c r="L3" s="27">
+        <v>45812</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1151,7 +1148,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1167,7 +1164,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1179,7 +1176,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1237,7 +1234,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="5">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1253,7 +1250,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1265,7 +1262,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1280,7 +1277,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1296,7 +1293,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1308,7 +1305,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1335,7 +1332,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1355,7 +1352,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1367,7 +1364,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="M12" s="8"/>
     </row>
@@ -1479,7 +1476,7 @@
     <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9964115-7E85-443C-ADFE-143CA719B044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7A9827-D2EC-4E16-9607-16F046103F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>p</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Arman Hossen</t>
+  </si>
+  <si>
+    <t>14/4/2025</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,8 +1066,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27">
-        <v>45812</v>
+      <c r="L3" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1148,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1164,7 +1167,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1176,7 +1179,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1234,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="5">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1250,7 +1253,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1262,7 +1265,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1277,7 +1280,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1293,7 +1296,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1305,7 +1308,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1332,7 +1335,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1352,7 +1355,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1364,7 +1367,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="M12" s="8"/>
     </row>
@@ -1511,7 +1514,7 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="18">
-        <v>45689</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7A9827-D2EC-4E16-9607-16F046103F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DE88D7-1B43-41A2-B6BA-286267ABE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>p</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Arman Hossen</t>
-  </si>
-  <si>
-    <t>14/4/2025</t>
   </si>
 </sst>
 </file>
@@ -990,7 +987,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1063,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27" t="s">
-        <v>35</v>
+      <c r="L3" s="27">
+        <v>45935</v>
       </c>
       <c r="M3" s="28"/>
     </row>

--- a/Daily_Work/Route Cost RSO.xlsx
+++ b/Daily_Work/Route Cost RSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\Daily_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DE88D7-1B43-41A2-B6BA-286267ABE145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0725BC-7243-4E05-97C8-5688D7C49607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>p</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Arman Hossen</t>
+  </si>
+  <si>
+    <t>15/5/2025</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1066,8 @@
         <v>19</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="27">
-        <v>45935</v>
+      <c r="L3" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -1148,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1164,7 +1167,7 @@
       </c>
       <c r="I7" s="2">
         <f>D7</f>
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ref="J7:K10" si="1">E7/2</f>
@@ -1176,7 +1179,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -1234,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="5">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1250,7 +1253,7 @@
       </c>
       <c r="I9" s="23">
         <f>D9</f>
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1262,7 +1265,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1277,7 +1280,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1293,7 +1296,7 @@
       </c>
       <c r="I10" s="23">
         <f>D10</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1305,7 +1308,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1332,7 +1335,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="9">
         <f t="shared" ref="D12:L12" si="3">SUM(D6:D11)</f>
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
@@ -1352,7 +1355,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
@@ -1364,7 +1367,7 @@
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="M12" s="8"/>
     </row>
@@ -1424,9 +1427,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C18" s="11" t="s">
